--- a/Documentación/Recursos.xlsx
+++ b/Documentación/Recursos.xlsx
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -896,14 +896,14 @@
         <v>25</v>
       </c>
       <c r="C20" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="8">
         <v>70</v>
       </c>
       <c r="E20" s="8">
         <f>D20*C20</f>
-        <v>490</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -950,14 +950,14 @@
         <v>25</v>
       </c>
       <c r="C23" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="8">
         <v>70</v>
       </c>
       <c r="E23" s="8">
         <f>D23*C23</f>
-        <v>700</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:5">

--- a/Documentación/Recursos.xlsx
+++ b/Documentación/Recursos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue\Documents\GitHub\WebMonitor\Documentación\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -102,11 +107,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;Q&quot;* #,##0.00_-;\-&quot;Q&quot;* #,##0.00_-;_-&quot;Q&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;Q&quot;* #,##0.00_-;\-&quot;Q&quot;* #,##0.00_-;_-&quot;Q&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,29 +277,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,6 +308,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -322,6 +327,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -368,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,9 +413,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,6 +448,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,405 +624,405 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="6"/>
+    <col min="4" max="5" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>500</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <f>D5*C5</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>270</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <f>D6*C6</f>
         <v>810</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="9">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6">
         <f>SUM(E5:E6)</f>
         <v>3310</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>5</v>
       </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5">
         <f>SUM(E10:E16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>7</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>70</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="5">
         <f>D20*C20</f>
         <v>490</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>6</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>70</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="5">
         <f>D21*C21</f>
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <v>70</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="5">
         <f>D22*C22</f>
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>10</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <v>70</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="5">
         <f>D23*C23</f>
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>18</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="5">
         <v>70</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="5">
         <f>D24*C24</f>
         <v>1260</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="8">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5">
         <f>SUM(E20:E24)</f>
         <v>3150</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="10">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="14">
         <f>E25+E17+E7</f>
         <v>6460</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="11"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1026,24 +1041,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
